--- a/test1.xlsx
+++ b/test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\智能问答系统\demo-front\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\北京交通大学\实习\智能问答系统\demo-front\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48133F45-D7EB-43A0-AE3C-F75FF3A5DBCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2353AE-3FFC-4C4A-8FA6-8D2DFCDB33F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16608" windowHeight="6144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>abandon</t>
   </si>
@@ -41,10 +41,6 @@
   </si>
   <si>
     <t>word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +378,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -391,56 +387,36 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
